--- a/ffbreporting/1.0.0/all-profiles.xlsx
+++ b/ffbreporting/1.0.0/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-26T16:39:06+02:00</t>
+    <t>2023-08-27T00:05:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
